--- a/Test Cases and Reports/Automation Testing Reports/Test Case Report__Automation Testing.xlsx
+++ b/Test Cases and Reports/Automation Testing Reports/Test Case Report__Automation Testing.xlsx
@@ -8,15 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheme\Downloads\Voice-Enabled-AI-Chatbot\Test Cases and Reports\Automation Testing Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84313802-F361-4173-A657-422D502979DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC6CD3E-A8CD-4F75-B7D7-EB79A4BEEA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{7F0DBCEC-97F8-4EA2-8E3E-675A0ECC9A2C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{7F0DBCEC-97F8-4EA2-8E3E-675A0ECC9A2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Role Page " sheetId="1" r:id="rId1"/>
     <sheet name="Student Page" sheetId="2" r:id="rId2"/>
     <sheet name="Instructor Page" sheetId="3" r:id="rId3"/>
     <sheet name="Admin Page" sheetId="4" r:id="rId4"/>
+    <sheet name="FAQ" sheetId="5" r:id="rId5"/>
+    <sheet name="Ask_Lumi Page" sheetId="6" r:id="rId6"/>
+    <sheet name="Setting Page" sheetId="8" r:id="rId7"/>
+    <sheet name="Voice Setting Page" sheetId="7" r:id="rId8"/>
+    <sheet name="Preferences_Setting Page" sheetId="9" r:id="rId9"/>
+    <sheet name="Notifications_Setting Page" sheetId="10" r:id="rId10"/>
+    <sheet name="Account_Setting Page" sheetId="11" r:id="rId11"/>
+    <sheet name="Reset_Password Page" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="229">
   <si>
     <t>Passed</t>
   </si>
@@ -609,6 +617,123 @@
   </si>
   <si>
     <t>TC_I123_Fail</t>
+  </si>
+  <si>
+    <t>Student Role Page Testing</t>
+  </si>
+  <si>
+    <t>Open Student Role Page</t>
+  </si>
+  <si>
+    <t>Page loads with title 'Student Role'</t>
+  </si>
+  <si>
+    <t>Page not loaded</t>
+  </si>
+  <si>
+    <t>Page failed to load initially</t>
+  </si>
+  <si>
+    <t>Page loaded successfully</t>
+  </si>
+  <si>
+    <t>Page loaded after fix</t>
+  </si>
+  <si>
+    <t>Locate Enrolled Courses Button</t>
+  </si>
+  <si>
+    <t>Button labeled 'Enrolled Courses' is visible</t>
+  </si>
+  <si>
+    <t>Button not visible</t>
+  </si>
+  <si>
+    <t>Button not visible due to CSS issue</t>
+  </si>
+  <si>
+    <t>Locate Upcoming Deadlines Button</t>
+  </si>
+  <si>
+    <t>Button labeled 'Upcoming Deadlines' is visible</t>
+  </si>
+  <si>
+    <t>Locate Submit Assignment Button</t>
+  </si>
+  <si>
+    <t>Button labeled 'Submit Assignment' is visible</t>
+  </si>
+  <si>
+    <t>Click Notifications Button</t>
+  </si>
+  <si>
+    <t>Button labeled 'Notifications' is visible</t>
+  </si>
+  <si>
+    <t>Button not displayed</t>
+  </si>
+  <si>
+    <t>Button did not trigger action</t>
+  </si>
+  <si>
+    <t>Button displayed</t>
+  </si>
+  <si>
+    <t>Button worked after fix</t>
+  </si>
+  <si>
+    <t>Click View Grades Button</t>
+  </si>
+  <si>
+    <t>Button labeled 'View Grades' is visible</t>
+  </si>
+  <si>
+    <t>Locate Logo</t>
+  </si>
+  <si>
+    <t>Logo not loaded</t>
+  </si>
+  <si>
+    <t>Logo not loaded due to incorrect src</t>
+  </si>
+  <si>
+    <t>Locate Footer Section</t>
+  </si>
+  <si>
+    <t>Footer loaded correctly</t>
+  </si>
+  <si>
+    <t>Help page displayed</t>
+  </si>
+  <si>
+    <t>Help page displayed correctly</t>
+  </si>
+  <si>
+    <t>FAQ page displayed</t>
+  </si>
+  <si>
+    <t>FAQ page displayed correctly</t>
+  </si>
+  <si>
+    <t>Contact Us page displayed</t>
+  </si>
+  <si>
+    <t>Contact Us page displayed correctly</t>
+  </si>
+  <si>
+    <t>Student Role Navigation</t>
+  </si>
+  <si>
+    <t>Student page loaded</t>
+  </si>
+  <si>
+    <t>Navigation successful</t>
+  </si>
+  <si>
+    <t>Admin page loaded</t>
+  </si>
+  <si>
+    <t>Instructor page loaded</t>
   </si>
 </sst>
 </file>
@@ -637,7 +762,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -647,6 +772,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,7 +809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -686,6 +817,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1025,7 +1159,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1423,16 +1557,510 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2424F36-BCEE-41D3-AC37-F749302BFA43}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26451393-9676-4489-9962-99266338B49A}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5FC781-E6AB-4045-855A-74CA3513D647}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C5A1BD-6D63-4392-999B-551C7AACA2A7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2424F36-BCEE-41D3-AC37-F749302BFA43}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.5546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2683,4 +3311,72 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49A81D8-CC9F-4BA4-ACD5-8B1BDA7C4E73}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7245FF9C-FCAE-4C5E-A62F-2E7112D85630}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86887CBF-B4C2-4145-845B-97087FA2760D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9389862-AC8B-4BF0-8120-DBA02EFC90D1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAD83A1-D776-4E67-9D19-4495B18746FF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test Cases and Reports/Automation Testing Reports/Test Case Report__Automation Testing.xlsx
+++ b/Test Cases and Reports/Automation Testing Reports/Test Case Report__Automation Testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheme\Downloads\Voice-Enabled-AI-Chatbot\Test Cases and Reports\Automation Testing Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC6CD3E-A8CD-4F75-B7D7-EB79A4BEEA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3896D0D-A321-4ACB-B713-86C38AEBF1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{7F0DBCEC-97F8-4EA2-8E3E-675A0ECC9A2C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="8" activeTab="11" xr2:uid="{7F0DBCEC-97F8-4EA2-8E3E-675A0ECC9A2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Role Page " sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="511">
   <si>
     <t>Passed</t>
   </si>
@@ -734,6 +734,852 @@
   </si>
   <si>
     <t>Instructor page loaded</t>
+  </si>
+  <si>
+    <t>TC_I058</t>
+  </si>
+  <si>
+    <t>Check visibility of FAQ questions</t>
+  </si>
+  <si>
+    <t>Check if FAQ questions are visible</t>
+  </si>
+  <si>
+    <t>FAQ questions should be visible</t>
+  </si>
+  <si>
+    <t>FAQ questions are visible</t>
+  </si>
+  <si>
+    <t>TC_I059</t>
+  </si>
+  <si>
+    <t>Expand answer to first question</t>
+  </si>
+  <si>
+    <t>Click first FAQ item</t>
+  </si>
+  <si>
+    <t>Answer should expand to 'block'</t>
+  </si>
+  <si>
+    <t>Answer did not expand (Fixed)</t>
+  </si>
+  <si>
+    <t>Failed - Fixed</t>
+  </si>
+  <si>
+    <t>TC_I060</t>
+  </si>
+  <si>
+    <t>Collapse answer on second click</t>
+  </si>
+  <si>
+    <t>Click first FAQ item twice</t>
+  </si>
+  <si>
+    <t>Answer should collapse to 'none'</t>
+  </si>
+  <si>
+    <t>Answer did not collapse (Fixed)</t>
+  </si>
+  <si>
+    <t>TC_I061</t>
+  </si>
+  <si>
+    <t>Navigate to 'Ask Lumi a New Question'</t>
+  </si>
+  <si>
+    <t>Click 'Ask Lumi a New Question' button</t>
+  </si>
+  <si>
+    <t>Navigate to 'ask-lumi.html'</t>
+  </si>
+  <si>
+    <t>Did not navigate (Fixed)</t>
+  </si>
+  <si>
+    <t>TC_I062</t>
+  </si>
+  <si>
+    <t>Verify expand/collapse is independent</t>
+  </si>
+  <si>
+    <t>Expand multiple FAQ items</t>
+  </si>
+  <si>
+    <t>Only first FAQ should be expanded</t>
+  </si>
+  <si>
+    <t>Expand/collapse did not work (Fixed)</t>
+  </si>
+  <si>
+    <t>TC_I063</t>
+  </si>
+  <si>
+    <t>Check FAQ layout responsiveness</t>
+  </si>
+  <si>
+    <t>Resize window to simulate mobile view</t>
+  </si>
+  <si>
+    <t>Flex direction should be 'column'</t>
+  </si>
+  <si>
+    <t>Flex direction not set (Fixed)</t>
+  </si>
+  <si>
+    <t>Expand answer to first question - Fixed</t>
+  </si>
+  <si>
+    <t>Answer expands to 'block'</t>
+  </si>
+  <si>
+    <t>Passed after fix</t>
+  </si>
+  <si>
+    <t>Collapse answer on second click - Fixed</t>
+  </si>
+  <si>
+    <t>Answer collapses to 'none'</t>
+  </si>
+  <si>
+    <t>Navigate to 'Ask Lumi a New Question' - Fixed</t>
+  </si>
+  <si>
+    <t>Navigates to 'ask-lumi.html'</t>
+  </si>
+  <si>
+    <t>Check FAQ layout responsiveness - Fixed</t>
+  </si>
+  <si>
+    <t>Flex direction is 'column'</t>
+  </si>
+  <si>
+    <t>Toggle answer display from none to block</t>
+  </si>
+  <si>
+    <t>Toggle answer display using toggleAnswer function</t>
+  </si>
+  <si>
+    <t>Display should change to 'block'</t>
+  </si>
+  <si>
+    <t>Display changed to 'block'</t>
+  </si>
+  <si>
+    <t>Unit test for toggleAnswer (block)</t>
+  </si>
+  <si>
+    <t>Toggle answer display from block to none</t>
+  </si>
+  <si>
+    <t>Display should change to 'none'</t>
+  </si>
+  <si>
+    <t>Display changed to 'none'</t>
+  </si>
+  <si>
+    <t>Unit test for toggleAnswer (none)</t>
+  </si>
+  <si>
+    <t>Call window.location.assign with 'ask-lumi.html'</t>
+  </si>
+  <si>
+    <t>Unit test for window.location.assign</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Submit Question Successfully</t>
+  </si>
+  <si>
+    <t>Enter question and click submit</t>
+  </si>
+  <si>
+    <t>Question submitted</t>
+  </si>
+  <si>
+    <t>Successfully submitted the question.</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>Submit Without Question</t>
+  </si>
+  <si>
+    <t>Leave question empty and click submit</t>
+  </si>
+  <si>
+    <t>Error message displayed</t>
+  </si>
+  <si>
+    <t>Error message displayed as expected.</t>
+  </si>
+  <si>
+    <t>C28</t>
+  </si>
+  <si>
+    <t>Voice Input - Microphone Access Granted</t>
+  </si>
+  <si>
+    <t>Click voice input button</t>
+  </si>
+  <si>
+    <t>Microphone activated</t>
+  </si>
+  <si>
+    <t>Microphone activated successfully.</t>
+  </si>
+  <si>
+    <t>C29</t>
+  </si>
+  <si>
+    <t>Microphone Access Denied</t>
+  </si>
+  <si>
+    <t>Click voice input button with denied permission</t>
+  </si>
+  <si>
+    <t>Error message not displayed initially. Issue identified and fixed.</t>
+  </si>
+  <si>
+    <t>Error message displayed correctly after fix.</t>
+  </si>
+  <si>
+    <t>C30</t>
+  </si>
+  <si>
+    <t>Voice Submission Shows Success Message</t>
+  </si>
+  <si>
+    <t>Submit voice question</t>
+  </si>
+  <si>
+    <t>Success message displayed</t>
+  </si>
+  <si>
+    <t>Voice submission worked as expected.</t>
+  </si>
+  <si>
+    <t>C31</t>
+  </si>
+  <si>
+    <t>Voice Submission Error</t>
+  </si>
+  <si>
+    <t>Submit voice question without microphone</t>
+  </si>
+  <si>
+    <t>Error displayed due to missing microphone.</t>
+  </si>
+  <si>
+    <t>U01</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Enter question and call function</t>
+  </si>
+  <si>
+    <t>Function handled question submission correctly.</t>
+  </si>
+  <si>
+    <t>U02</t>
+  </si>
+  <si>
+    <t>Leave question empty and call function</t>
+  </si>
+  <si>
+    <t>Function displayed error for empty question.</t>
+  </si>
+  <si>
+    <t>U03</t>
+  </si>
+  <si>
+    <t>Call voice function</t>
+  </si>
+  <si>
+    <t>Microphone function activated successfully.</t>
+  </si>
+  <si>
+    <t>U04</t>
+  </si>
+  <si>
+    <t>Voice Input - Microphone Access Denied</t>
+  </si>
+  <si>
+    <t>Call voice function with denied permission</t>
+  </si>
+  <si>
+    <t>Error message not displayed initially. Fixed later.</t>
+  </si>
+  <si>
+    <t>Error displayed correctly after fix.</t>
+  </si>
+  <si>
+    <t>Function triggered correctly.</t>
+  </si>
+  <si>
+    <t>Function called with 'account_setting.html'</t>
+  </si>
+  <si>
+    <t>Click Account Settings link</t>
+  </si>
+  <si>
+    <t>Navigate to Account Settings</t>
+  </si>
+  <si>
+    <t>Function called with 'notifications_setting.html'</t>
+  </si>
+  <si>
+    <t>Click Notifications Settings link</t>
+  </si>
+  <si>
+    <t>Navigate to Notifications Settings</t>
+  </si>
+  <si>
+    <t>Function called with 'preferences_setting.html'</t>
+  </si>
+  <si>
+    <t>Click Preferences Settings link</t>
+  </si>
+  <si>
+    <t>Navigate to Preferences Settings</t>
+  </si>
+  <si>
+    <t>Function called with 'voice_setting.html'</t>
+  </si>
+  <si>
+    <t>Click Voice Settings link</t>
+  </si>
+  <si>
+    <t>Navigate to Voice Settings</t>
+  </si>
+  <si>
+    <t>Navigation works correctly.</t>
+  </si>
+  <si>
+    <t>Navigates to account_setting.html</t>
+  </si>
+  <si>
+    <t>C102</t>
+  </si>
+  <si>
+    <t>Navigation failed initially. Issue fixed.</t>
+  </si>
+  <si>
+    <t>Navigates to notifications_setting.html</t>
+  </si>
+  <si>
+    <t>C101</t>
+  </si>
+  <si>
+    <t>Navigates to preferences_setting.html</t>
+  </si>
+  <si>
+    <t>C99</t>
+  </si>
+  <si>
+    <t>Navigates to voice_setting.html</t>
+  </si>
+  <si>
+    <t>C98</t>
+  </si>
+  <si>
+    <t>All elements displayed correctly after fix.</t>
+  </si>
+  <si>
+    <t>All elements visible</t>
+  </si>
+  <si>
+    <t>Inspect settings page elements</t>
+  </si>
+  <si>
+    <t>Check UI Elements Visibility</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>Elements not visible initially. Issue fixed.</t>
+  </si>
+  <si>
+    <t>Page loaded successfully after fix.</t>
+  </si>
+  <si>
+    <t>Settings page loads</t>
+  </si>
+  <si>
+    <t>Open settings page</t>
+  </si>
+  <si>
+    <t>Page Load</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>Page did not load initially. Issue identified and fixed.</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>Enable/Disable Voice Input</t>
+  </si>
+  <si>
+    <t>Toggle the voice input checkbox</t>
+  </si>
+  <si>
+    <t>Voice input enabled/disabled</t>
+  </si>
+  <si>
+    <t>Voice input toggle not working initially. Issue identified and fixed.</t>
+  </si>
+  <si>
+    <t>Toggle works correctly after fix.</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>Select Speech Mode Option</t>
+  </si>
+  <si>
+    <t>Select a speech mode from dropdown</t>
+  </si>
+  <si>
+    <t>Speech mode changed</t>
+  </si>
+  <si>
+    <t>Speech mode change not working initially. Fixed.</t>
+  </si>
+  <si>
+    <t>Selection works correctly after fix.</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>Change Language Option</t>
+  </si>
+  <si>
+    <t>Select a language from dropdown</t>
+  </si>
+  <si>
+    <t>Language changed</t>
+  </si>
+  <si>
+    <t>Language change not working initially. Fixed.</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>Change Auto-Delete Option</t>
+  </si>
+  <si>
+    <t>Toggle the auto-delete checkbox</t>
+  </si>
+  <si>
+    <t>Auto-delete enabled/disabled</t>
+  </si>
+  <si>
+    <t>Auto-delete toggle not working initially. Fixed.</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>Save Button Functionality</t>
+  </si>
+  <si>
+    <t>Click Save button</t>
+  </si>
+  <si>
+    <t>Settings saved successfully</t>
+  </si>
+  <si>
+    <t>Save button not triggering the save function initially. Fixed.</t>
+  </si>
+  <si>
+    <t>Save function triggered correctly.</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>Navigation to Settings Page</t>
+  </si>
+  <si>
+    <t>Click Back to Settings link</t>
+  </si>
+  <si>
+    <t>Navigates to settings.html</t>
+  </si>
+  <si>
+    <t>Navigation failed initially. Fixed.</t>
+  </si>
+  <si>
+    <t>Toggle Voice Input</t>
+  </si>
+  <si>
+    <t>Check the checkbox to enable/disable voice input</t>
+  </si>
+  <si>
+    <t>Checkbox toggled</t>
+  </si>
+  <si>
+    <t>Checkbox toggles correctly.</t>
+  </si>
+  <si>
+    <t>Change Speech Mode</t>
+  </si>
+  <si>
+    <t>Select a speech mode from the dropdown</t>
+  </si>
+  <si>
+    <t>Mode selection works as expected.</t>
+  </si>
+  <si>
+    <t>Select a language from the dropdown</t>
+  </si>
+  <si>
+    <t>Language selection works as expected.</t>
+  </si>
+  <si>
+    <t>Toggle Auto-Delete Option</t>
+  </si>
+  <si>
+    <t>Check the checkbox to enable/disable auto-delete</t>
+  </si>
+  <si>
+    <t>U05</t>
+  </si>
+  <si>
+    <t>Save Settings Functionality</t>
+  </si>
+  <si>
+    <t>Click the save button</t>
+  </si>
+  <si>
+    <t>Save function triggered</t>
+  </si>
+  <si>
+    <t>Save function executed correctly.</t>
+  </si>
+  <si>
+    <t>Sound option changes correctly.</t>
+  </si>
+  <si>
+    <t>Sound option changed</t>
+  </si>
+  <si>
+    <t>Select a sound option from dropdown</t>
+  </si>
+  <si>
+    <t>Change Sound Option</t>
+  </si>
+  <si>
+    <t>Check the checkbox to enable/disable email alerts</t>
+  </si>
+  <si>
+    <t>Toggle Email Alerts</t>
+  </si>
+  <si>
+    <t>Check the checkbox to enable/disable push notifications</t>
+  </si>
+  <si>
+    <t>Toggle Push Notifications</t>
+  </si>
+  <si>
+    <t>Elements displayed correctly.</t>
+  </si>
+  <si>
+    <t>Check visibility of all elements</t>
+  </si>
+  <si>
+    <t>C160</t>
+  </si>
+  <si>
+    <t>Page loaded correctly.</t>
+  </si>
+  <si>
+    <t>Page loads without errors</t>
+  </si>
+  <si>
+    <t>Open notifications settings page</t>
+  </si>
+  <si>
+    <t>C159</t>
+  </si>
+  <si>
+    <t>Navigates to settings page</t>
+  </si>
+  <si>
+    <t>Click 'Back to Settings' link</t>
+  </si>
+  <si>
+    <t>Back to Settings Navigation</t>
+  </si>
+  <si>
+    <t>C51</t>
+  </si>
+  <si>
+    <t>Navigation not working initially. Issue fixed.</t>
+  </si>
+  <si>
+    <t>Save works correctly.</t>
+  </si>
+  <si>
+    <t>Settings saved</t>
+  </si>
+  <si>
+    <t>Select sound 'Off' and click Save</t>
+  </si>
+  <si>
+    <t>Change Sound to Off and Save</t>
+  </si>
+  <si>
+    <t>C50</t>
+  </si>
+  <si>
+    <t>Save not working initially. Issue fixed.</t>
+  </si>
+  <si>
+    <t>Select sound 'Enabled' and click Save</t>
+  </si>
+  <si>
+    <t>Change Sound to Enabled and Save</t>
+  </si>
+  <si>
+    <t>C49</t>
+  </si>
+  <si>
+    <t>Enable email alerts and click Save</t>
+  </si>
+  <si>
+    <t>Toggle Email Alerts and Save</t>
+  </si>
+  <si>
+    <t>C48</t>
+  </si>
+  <si>
+    <t>Enable push notifications and click Save</t>
+  </si>
+  <si>
+    <t>Toggle Push Notifications and Save</t>
+  </si>
+  <si>
+    <t>C47</t>
+  </si>
+  <si>
+    <t>Selections appear correctly.</t>
+  </si>
+  <si>
+    <t>Default selections visible</t>
+  </si>
+  <si>
+    <t>Verify Default Selections</t>
+  </si>
+  <si>
+    <t>C46</t>
+  </si>
+  <si>
+    <t>Default selections not visible initially. Issue identified and fixed.</t>
+  </si>
+  <si>
+    <t>Account changes correctly.</t>
+  </si>
+  <si>
+    <t>Linked account changed</t>
+  </si>
+  <si>
+    <t>Select 'Facebook' as linked account</t>
+  </si>
+  <si>
+    <t>Change Linked Account Option</t>
+  </si>
+  <si>
+    <t>Toggle works correctly.</t>
+  </si>
+  <si>
+    <t>Password visibility toggles</t>
+  </si>
+  <si>
+    <t>Click 'Show/Hide Password' button</t>
+  </si>
+  <si>
+    <t>Toggle Password Visibility</t>
+  </si>
+  <si>
+    <t>Displayed correctly.</t>
+  </si>
+  <si>
+    <t>Name and Email visible</t>
+  </si>
+  <si>
+    <t>Verify name and email display</t>
+  </si>
+  <si>
+    <t>Display Username and Email</t>
+  </si>
+  <si>
+    <t>C57</t>
+  </si>
+  <si>
+    <t>Logout works correctly.</t>
+  </si>
+  <si>
+    <t>Logout executed</t>
+  </si>
+  <si>
+    <t>Click 'Logout' button</t>
+  </si>
+  <si>
+    <t>Logout Button Functionality</t>
+  </si>
+  <si>
+    <t>C56</t>
+  </si>
+  <si>
+    <t>Logout not working initially. Issue fixed.</t>
+  </si>
+  <si>
+    <t>Change works correctly.</t>
+  </si>
+  <si>
+    <t>C55</t>
+  </si>
+  <si>
+    <t>Change not working initially. Issue fixed.</t>
+  </si>
+  <si>
+    <t>Default selection works correctly.</t>
+  </si>
+  <si>
+    <t>Google selected</t>
+  </si>
+  <si>
+    <t>Check default linked account</t>
+  </si>
+  <si>
+    <t>Verify Default Linked Account Selection</t>
+  </si>
+  <si>
+    <t>C54</t>
+  </si>
+  <si>
+    <t>Default account not selected. Issue fixed.</t>
+  </si>
+  <si>
+    <t>C53</t>
+  </si>
+  <si>
+    <t>Toggle not working initially. Issue fixed.</t>
+  </si>
+  <si>
+    <t>Open account settings page</t>
+  </si>
+  <si>
+    <t>Check Name and Email Display</t>
+  </si>
+  <si>
+    <t>C52</t>
+  </si>
+  <si>
+    <t>Name and email display failed initially. Issue identified and fixed.</t>
+  </si>
+  <si>
+    <t>Language changes correctly.</t>
+  </si>
+  <si>
+    <t>Select 'Spanish' language</t>
+  </si>
+  <si>
+    <t>Change App Language</t>
+  </si>
+  <si>
+    <t>Font size changes correctly.</t>
+  </si>
+  <si>
+    <t>Font size changed</t>
+  </si>
+  <si>
+    <t>Select 'Large' font size</t>
+  </si>
+  <si>
+    <t>Change Font Size</t>
+  </si>
+  <si>
+    <t>Theme changes correctly.</t>
+  </si>
+  <si>
+    <t>Theme changed</t>
+  </si>
+  <si>
+    <t>Select 'Dark' theme</t>
+  </si>
+  <si>
+    <t>Change Theme Preference</t>
+  </si>
+  <si>
+    <t>Click Save without making changes</t>
+  </si>
+  <si>
+    <t>Verify Save Button Without Changes</t>
+  </si>
+  <si>
+    <t>C44</t>
+  </si>
+  <si>
+    <t>Select 'Spanish' and click Save</t>
+  </si>
+  <si>
+    <t>Verify App Language Option</t>
+  </si>
+  <si>
+    <t>C43</t>
+  </si>
+  <si>
+    <t>C42</t>
+  </si>
+  <si>
+    <t>Select 'Large' font size and click Save</t>
+  </si>
+  <si>
+    <t>Change Font Size and Save</t>
+  </si>
+  <si>
+    <t>C41</t>
+  </si>
+  <si>
+    <t>Select 'Dark' theme and click Save</t>
+  </si>
+  <si>
+    <t>Change Theme Preference and Save</t>
+  </si>
+  <si>
+    <t>C40</t>
+  </si>
+  <si>
+    <t>Open preferences settings page</t>
+  </si>
+  <si>
+    <t>Check Default Preference Selections</t>
+  </si>
+  <si>
+    <t>C39</t>
+  </si>
+  <si>
+    <t>Default selections incorrect initially. Issue identified and fixed.</t>
   </si>
 </sst>
 </file>
@@ -809,7 +1655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -821,6 +1667,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1159,7 +2015,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1559,26 +2415,962 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26451393-9676-4489-9962-99266338B49A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5FC781-E6AB-4045-855A-74CA3513D647}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="53.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1587,8 +3379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C5A1BD-6D63-4392-999B-551C7AACA2A7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2719,8 +4511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EB6356-B450-4614-90A7-E9B939739C7E}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3315,68 +5107,2050 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49A81D8-CC9F-4BA4-ACD5-8B1BDA7C4E73}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.5546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7245FF9C-FCAE-4C5E-A62F-2E7112D85630}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="61.109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86887CBF-B4C2-4145-845B-97087FA2760D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="47" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="44.44140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9389862-AC8B-4BF0-8120-DBA02EFC90D1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="59.88671875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAD83A1-D776-4E67-9D19-4495B18746FF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="61.5546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="9" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test Cases and Reports/Automation Testing Reports/Test Case Report__Automation Testing.xlsx
+++ b/Test Cases and Reports/Automation Testing Reports/Test Case Report__Automation Testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheme\Downloads\Voice-Enabled-AI-Chatbot\Test Cases and Reports\Automation Testing Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3896D0D-A321-4ACB-B713-86C38AEBF1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607BDB1C-DF6E-453D-A533-7949B0774651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="8" activeTab="11" xr2:uid="{7F0DBCEC-97F8-4EA2-8E3E-675A0ECC9A2C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="9" activeTab="12" xr2:uid="{7F0DBCEC-97F8-4EA2-8E3E-675A0ECC9A2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Role Page " sheetId="1" r:id="rId1"/>
@@ -24,7 +24,8 @@
     <sheet name="Preferences_Setting Page" sheetId="9" r:id="rId9"/>
     <sheet name="Notifications_Setting Page" sheetId="10" r:id="rId10"/>
     <sheet name="Account_Setting Page" sheetId="11" r:id="rId11"/>
-    <sheet name="Reset_Password Page" sheetId="12" r:id="rId12"/>
+    <sheet name="Welcome Page" sheetId="13" r:id="rId12"/>
+    <sheet name="Reset_Password Page" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="653">
   <si>
     <t>Passed</t>
   </si>
@@ -1580,6 +1581,432 @@
   </si>
   <si>
     <t>Default selections incorrect initially. Issue identified and fixed.</t>
+  </si>
+  <si>
+    <t>Test ID</t>
+  </si>
+  <si>
+    <t>TC_001</t>
+  </si>
+  <si>
+    <t>Check Student ID Input</t>
+  </si>
+  <si>
+    <t>Enter Student ID</t>
+  </si>
+  <si>
+    <t>Student ID visible</t>
+  </si>
+  <si>
+    <t>Error: Student ID not visible</t>
+  </si>
+  <si>
+    <t>ID not displayed initially.</t>
+  </si>
+  <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>Check Phone Number Input</t>
+  </si>
+  <si>
+    <t>Enter Phone Number</t>
+  </si>
+  <si>
+    <t>Phone Number visible</t>
+  </si>
+  <si>
+    <t>Error: Phone Number not visible</t>
+  </si>
+  <si>
+    <t>Number not displayed initially.</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>Check Email Input</t>
+  </si>
+  <si>
+    <t>Enter Email</t>
+  </si>
+  <si>
+    <t>Email visible</t>
+  </si>
+  <si>
+    <t>Error: Email not visible</t>
+  </si>
+  <si>
+    <t>Email not displayed initially.</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>Submit Without Filling Fields</t>
+  </si>
+  <si>
+    <t>Leave Fields Empty and Submit</t>
+  </si>
+  <si>
+    <t>Error Message Displayed</t>
+  </si>
+  <si>
+    <t>No Error Displayed</t>
+  </si>
+  <si>
+    <t>Error message missing initially.</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
+    <t>Successful Form Submission</t>
+  </si>
+  <si>
+    <t>Fill Fields and Submit</t>
+  </si>
+  <si>
+    <t>Form Submitted Successfully</t>
+  </si>
+  <si>
+    <t>Form Submission Failed</t>
+  </si>
+  <si>
+    <t>Submit failed initially.</t>
+  </si>
+  <si>
+    <t>TC_006</t>
+  </si>
+  <si>
+    <t>Validate Student ID Input</t>
+  </si>
+  <si>
+    <t>Student ID Saved</t>
+  </si>
+  <si>
+    <t>Saved correctly.</t>
+  </si>
+  <si>
+    <t>TC_007</t>
+  </si>
+  <si>
+    <t>Validate Phone Number Input</t>
+  </si>
+  <si>
+    <t>Phone Number Saved</t>
+  </si>
+  <si>
+    <t>TC_008</t>
+  </si>
+  <si>
+    <t>Validate Email Input</t>
+  </si>
+  <si>
+    <t>Email Saved</t>
+  </si>
+  <si>
+    <t>TC_009</t>
+  </si>
+  <si>
+    <t>Voice Recognition Error Display</t>
+  </si>
+  <si>
+    <t>Trigger Voice Error Display</t>
+  </si>
+  <si>
+    <t>Error Displayed</t>
+  </si>
+  <si>
+    <t>Error displayed correctly.</t>
+  </si>
+  <si>
+    <t>TC_010</t>
+  </si>
+  <si>
+    <t>Click Save Button</t>
+  </si>
+  <si>
+    <t>Settings Saved</t>
+  </si>
+  <si>
+    <t>Settings saved correctly.</t>
+  </si>
+  <si>
+    <t>TC_011</t>
+  </si>
+  <si>
+    <t>Form Responsiveness</t>
+  </si>
+  <si>
+    <t>Adjust Screen Size</t>
+  </si>
+  <si>
+    <t>Form adjusts to screen size</t>
+  </si>
+  <si>
+    <t>Responsive design works.</t>
+  </si>
+  <si>
+    <t>Form reset after submission.</t>
+  </si>
+  <si>
+    <t>Form is reset</t>
+  </si>
+  <si>
+    <t>Reset the form after submission</t>
+  </si>
+  <si>
+    <t>Reset Form After Submission</t>
+  </si>
+  <si>
+    <t>Validation triggered as expected.</t>
+  </si>
+  <si>
+    <t>Validation triggered</t>
+  </si>
+  <si>
+    <t>Click submit button</t>
+  </si>
+  <si>
+    <t>Trigger Form Validation</t>
+  </si>
+  <si>
+    <t>Confirmation password works.</t>
+  </si>
+  <si>
+    <t>Confirmation password saved</t>
+  </si>
+  <si>
+    <t>Enter valid confirmation password</t>
+  </si>
+  <si>
+    <t>Validate Confirm Password Input</t>
+  </si>
+  <si>
+    <t>Password input works.</t>
+  </si>
+  <si>
+    <t>Password saved</t>
+  </si>
+  <si>
+    <t>Enter valid password</t>
+  </si>
+  <si>
+    <t>Validate New Password Input</t>
+  </si>
+  <si>
+    <t>Username input works.</t>
+  </si>
+  <si>
+    <t>Username saved</t>
+  </si>
+  <si>
+    <t>Enter valid username</t>
+  </si>
+  <si>
+    <t>Validate Username Input</t>
+  </si>
+  <si>
+    <t>Form reset successfully.</t>
+  </si>
+  <si>
+    <t>Submit form and check reset</t>
+  </si>
+  <si>
+    <t>Verify Form Reset After Submission</t>
+  </si>
+  <si>
+    <t>C197</t>
+  </si>
+  <si>
+    <t>Password visibility toggled.</t>
+  </si>
+  <si>
+    <t>Password is visible</t>
+  </si>
+  <si>
+    <t>Toggle password visibility</t>
+  </si>
+  <si>
+    <t>Verify Password Visibility Toggle</t>
+  </si>
+  <si>
+    <t>C195</t>
+  </si>
+  <si>
+    <t>Link displayed correctly.</t>
+  </si>
+  <si>
+    <t>Link is visible</t>
+  </si>
+  <si>
+    <t>Check link visibility</t>
+  </si>
+  <si>
+    <t>Verify Back to Chat Button</t>
+  </si>
+  <si>
+    <t>C194</t>
+  </si>
+  <si>
+    <t>Form submission successful.</t>
+  </si>
+  <si>
+    <t>Form submitted successfully</t>
+  </si>
+  <si>
+    <t>Submit form</t>
+  </si>
+  <si>
+    <t>Verify Successful Password Change</t>
+  </si>
+  <si>
+    <t>C193</t>
+  </si>
+  <si>
+    <t>Button enabled as expected.</t>
+  </si>
+  <si>
+    <t>Button is enabled</t>
+  </si>
+  <si>
+    <t>Check if button is enabled</t>
+  </si>
+  <si>
+    <t>Verify Change Password Button Enabled</t>
+  </si>
+  <si>
+    <t>C191</t>
+  </si>
+  <si>
+    <t>Passwords matched successfully.</t>
+  </si>
+  <si>
+    <t>Passwords match</t>
+  </si>
+  <si>
+    <t>Enter matching passwords</t>
+  </si>
+  <si>
+    <t>Verify Password Matching</t>
+  </si>
+  <si>
+    <t>C190</t>
+  </si>
+  <si>
+    <t>Field found successfully.</t>
+  </si>
+  <si>
+    <t>Field is visible</t>
+  </si>
+  <si>
+    <t>Check if field exists</t>
+  </si>
+  <si>
+    <t>Verify Confirm Password Field</t>
+  </si>
+  <si>
+    <t>C189</t>
+  </si>
+  <si>
+    <t>Verify Username/Email Field</t>
+  </si>
+  <si>
+    <t>C188</t>
+  </si>
+  <si>
+    <t>Page loaded in optimal time.</t>
+  </si>
+  <si>
+    <t>Load within 1.8 seconds</t>
+  </si>
+  <si>
+    <t>Load within 2 seconds</t>
+  </si>
+  <si>
+    <t>Load page and measure time</t>
+  </si>
+  <si>
+    <t>Verify Page Load Time</t>
+  </si>
+  <si>
+    <t>C187</t>
+  </si>
+  <si>
+    <t>Verify New Password Field</t>
+  </si>
+  <si>
+    <t>C186</t>
+  </si>
+  <si>
+    <t>Password meets length requirement.</t>
+  </si>
+  <si>
+    <t>Password length is 12</t>
+  </si>
+  <si>
+    <t>Password length is 8 or more</t>
+  </si>
+  <si>
+    <t>Enter a valid password</t>
+  </si>
+  <si>
+    <t>Verify Minimum Password Length</t>
+  </si>
+  <si>
+    <t>C196</t>
+  </si>
+  <si>
+    <t>Password too short.</t>
+  </si>
+  <si>
+    <t>Password length is 5</t>
+  </si>
+  <si>
+    <t>Enter a short password</t>
+  </si>
+  <si>
+    <t>Error displayed</t>
+  </si>
+  <si>
+    <t>Verify Error for Password Mismatch</t>
+  </si>
+  <si>
+    <t>C192</t>
+  </si>
+  <si>
+    <t>Error not displayed.</t>
+  </si>
+  <si>
+    <t>No error displayed</t>
+  </si>
+  <si>
+    <t>Error displayed for mismatch</t>
+  </si>
+  <si>
+    <t>Enter mismatched passwords</t>
+  </si>
+  <si>
+    <t>Validation worked correctly.</t>
+  </si>
+  <si>
+    <t>Validation fails</t>
+  </si>
+  <si>
+    <t>Enter invalid password</t>
+  </si>
+  <si>
+    <t>Input Field Validation</t>
+  </si>
+  <si>
+    <t>C184</t>
+  </si>
+  <si>
+    <t>Validation worked incorrectly.</t>
+  </si>
+  <si>
+    <t>Validation passes</t>
   </si>
 </sst>
 </file>
@@ -3376,15 +3803,1042 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5260B4-9806-4BF4-9E7D-56F4CC597DE9}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="9" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C5A1BD-6D63-4392-999B-551C7AACA2A7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="51.109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Test Cases and Reports/Automation Testing Reports/Test Case Report__Automation Testing.xlsx
+++ b/Test Cases and Reports/Automation Testing Reports/Test Case Report__Automation Testing.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheme\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheme\Downloads\Voice-Enabled-AI-Chatbot\Test Cases and Reports\Automation Testing Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107B5B75-377B-4B10-B7C7-8806BA970954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB22CCBB-4583-469E-9481-4500E08E8747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="12" xr2:uid="{7F0DBCEC-97F8-4EA2-8E3E-675A0ECC9A2C}"/>
   </bookViews>
@@ -4250,7 +4250,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
